--- a/media/toa-do.xlsx
+++ b/media/toa-do.xlsx
@@ -33,7 +33,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -55,12 +55,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,7 +99,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -115,10 +109,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -141,11 +131,11 @@
   </sheetPr>
   <dimension ref="A1:O996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q15" activeCellId="0" sqref="Q15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P77" activeCellId="0" sqref="P77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
@@ -213,7 +203,7 @@
       <c r="F2" s="1" t="n">
         <v>457</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="2" t="n">
         <v>182</v>
       </c>
       <c r="H2" s="1" t="n">
@@ -279,7 +269,7 @@
       <c r="F4" s="1" t="n">
         <v>428</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="2" t="n">
         <v>184</v>
       </c>
       <c r="H4" s="1" t="n">
@@ -359,7 +349,7 @@
       <c r="F6" s="1" t="n">
         <v>476</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="2" t="n">
         <v>186</v>
       </c>
       <c r="H6" s="1" t="n">
@@ -439,7 +429,7 @@
       <c r="F8" s="1" t="n">
         <v>440</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="2" t="n">
         <v>188</v>
       </c>
       <c r="H8" s="1" t="n">
@@ -533,7 +523,7 @@
       <c r="F10" s="1" t="n">
         <v>534</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="2" t="n">
         <v>190</v>
       </c>
       <c r="H10" s="1" t="n">
@@ -599,7 +589,7 @@
       <c r="F12" s="1" t="n">
         <v>476</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="2" t="n">
         <v>192</v>
       </c>
       <c r="H12" s="1" t="n">
@@ -679,7 +669,7 @@
       <c r="F14" s="1" t="n">
         <v>524</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="2" t="n">
         <v>194</v>
       </c>
       <c r="H14" s="1" t="n">
@@ -745,7 +735,7 @@
       <c r="F16" s="1" t="n">
         <v>466</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" s="2" t="n">
         <v>196</v>
       </c>
       <c r="H16" s="1" t="n">
@@ -811,7 +801,7 @@
       <c r="F18" s="1" t="n">
         <v>418</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="G18" s="2" t="n">
         <v>198</v>
       </c>
       <c r="H18" s="1" t="n">
@@ -877,7 +867,7 @@
       <c r="F20" s="1" t="n">
         <v>396</v>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="2" t="n">
         <v>200</v>
       </c>
       <c r="H20" s="1" t="n">
@@ -957,7 +947,7 @@
       <c r="F22" s="1" t="n">
         <v>366</v>
       </c>
-      <c r="G22" s="3" t="n">
+      <c r="G22" s="2" t="n">
         <v>202</v>
       </c>
       <c r="H22" s="1" t="n">
@@ -1037,7 +1027,7 @@
       <c r="F24" s="1" t="n">
         <v>355</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="G24" s="2" t="n">
         <v>204</v>
       </c>
       <c r="H24" s="1" t="n">
@@ -1103,7 +1093,7 @@
       <c r="F26" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="G26" s="3" t="n">
+      <c r="G26" s="2" t="n">
         <v>206</v>
       </c>
       <c r="H26" s="1" t="n">
@@ -1183,7 +1173,7 @@
       <c r="F28" s="1" t="n">
         <v>379</v>
       </c>
-      <c r="G28" s="3" t="n">
+      <c r="G28" s="2" t="n">
         <v>208</v>
       </c>
       <c r="H28" s="1" t="n">
@@ -1249,7 +1239,7 @@
       <c r="F30" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="G30" s="3" t="n">
+      <c r="G30" s="2" t="n">
         <v>210</v>
       </c>
       <c r="H30" s="1" t="n">
@@ -1329,7 +1319,7 @@
       <c r="F32" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="G32" s="3" t="n">
+      <c r="G32" s="2" t="n">
         <v>212</v>
       </c>
       <c r="H32" s="1" t="n">
@@ -1409,7 +1399,7 @@
       <c r="F34" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="G34" s="3" t="n">
+      <c r="G34" s="2" t="n">
         <v>214</v>
       </c>
       <c r="H34" s="1" t="n">
@@ -1489,7 +1479,7 @@
       <c r="F36" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="G36" s="3" t="n">
+      <c r="G36" s="2" t="n">
         <v>216</v>
       </c>
       <c r="H36" s="1" t="n">
@@ -1555,7 +1545,7 @@
       <c r="F38" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="G38" s="3" t="n">
+      <c r="G38" s="2" t="n">
         <v>218</v>
       </c>
       <c r="H38" s="1" t="n">
@@ -1635,7 +1625,7 @@
       <c r="F40" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="G40" s="3" t="n">
+      <c r="G40" s="2" t="n">
         <v>220</v>
       </c>
       <c r="H40" s="1" t="n">
@@ -1715,7 +1705,7 @@
       <c r="F42" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="G42" s="3" t="n">
+      <c r="G42" s="2" t="n">
         <v>222</v>
       </c>
       <c r="H42" s="1" t="n">
@@ -1781,7 +1771,7 @@
       <c r="F44" s="1" t="n">
         <v>441</v>
       </c>
-      <c r="G44" s="3" t="n">
+      <c r="G44" s="2" t="n">
         <v>224</v>
       </c>
       <c r="H44" s="1" t="n">
@@ -1847,7 +1837,7 @@
       <c r="F46" s="1" t="n">
         <v>363</v>
       </c>
-      <c r="G46" s="3" t="n">
+      <c r="G46" s="2" t="n">
         <v>226</v>
       </c>
       <c r="H46" s="1" t="n">
@@ -1913,7 +1903,7 @@
       <c r="F48" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="G48" s="3" t="n">
+      <c r="G48" s="2" t="n">
         <v>228</v>
       </c>
       <c r="H48" s="1" t="n">
@@ -1979,7 +1969,7 @@
       <c r="F50" s="1" t="n">
         <v>492</v>
       </c>
-      <c r="G50" s="3" t="n">
+      <c r="G50" s="2" t="n">
         <v>230</v>
       </c>
       <c r="H50" s="1" t="n">
@@ -2059,7 +2049,7 @@
       <c r="F52" s="1" t="n">
         <v>344</v>
       </c>
-      <c r="G52" s="3" t="n">
+      <c r="G52" s="2" t="n">
         <v>232</v>
       </c>
       <c r="H52" s="1" t="n">
@@ -2153,7 +2143,7 @@
       <c r="F54" s="1" t="n">
         <v>369</v>
       </c>
-      <c r="G54" s="3" t="n">
+      <c r="G54" s="2" t="n">
         <v>234</v>
       </c>
       <c r="H54" s="1" t="n">
@@ -2233,7 +2223,7 @@
       <c r="F56" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="G56" s="3" t="n">
+      <c r="G56" s="2" t="n">
         <v>236</v>
       </c>
       <c r="H56" s="1" t="n">
@@ -2313,7 +2303,7 @@
       <c r="F58" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="G58" s="3" t="n">
+      <c r="G58" s="2" t="n">
         <v>238</v>
       </c>
       <c r="H58" s="1" t="n">
@@ -2407,7 +2397,7 @@
       <c r="F60" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="G60" s="3" t="n">
+      <c r="G60" s="2" t="n">
         <v>240</v>
       </c>
       <c r="H60" s="1" t="n">
@@ -2487,7 +2477,7 @@
       <c r="F62" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="G62" s="3" t="n">
+      <c r="G62" s="2" t="n">
         <v>242</v>
       </c>
       <c r="H62" s="1" t="n">
@@ -2581,7 +2571,7 @@
       <c r="F64" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="G64" s="3" t="n">
+      <c r="G64" s="2" t="n">
         <v>244</v>
       </c>
       <c r="H64" s="1" t="n">
@@ -2661,7 +2651,7 @@
       <c r="F66" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="G66" s="3" t="n">
+      <c r="G66" s="2" t="n">
         <v>246</v>
       </c>
       <c r="H66" s="1" t="n">
@@ -2727,7 +2717,7 @@
       <c r="F68" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="G68" s="3" t="n">
+      <c r="G68" s="2" t="n">
         <v>248</v>
       </c>
       <c r="H68" s="1" t="n">
@@ -2793,7 +2783,7 @@
       <c r="F70" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="G70" s="3" t="n">
+      <c r="G70" s="2" t="n">
         <v>250</v>
       </c>
       <c r="H70" s="1" t="n">
@@ -2873,7 +2863,7 @@
       <c r="F72" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="G72" s="3" t="n">
+      <c r="G72" s="2" t="n">
         <v>252</v>
       </c>
       <c r="H72" s="1" t="n">
@@ -2925,34 +2915,34 @@
         <v>74</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>164</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F74" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="G74" s="3" t="n">
+      <c r="G74" s="2" t="n">
         <v>254</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="J74" s="0" t="n">
         <v>297</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L74" s="1" t="n">
         <v>257</v>
@@ -2961,10 +2951,10 @@
         <v>325</v>
       </c>
       <c r="N74" s="1" t="n">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="O74" s="1" t="n">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2972,46 +2962,46 @@
         <v>75</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>165</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>588</v>
+        <v>387</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G75" s="0" t="n">
         <v>255</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>591</v>
+        <v>397</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="J75" s="0" t="n">
         <v>298</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>591</v>
+        <v>400</v>
       </c>
       <c r="L75" s="1" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M75" s="0" t="n">
         <v>326</v>
       </c>
       <c r="N75" s="1" t="n">
-        <v>599</v>
+        <v>391</v>
       </c>
       <c r="O75" s="1" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3033,7 +3023,7 @@
       <c r="F76" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="G76" s="3" t="n">
+      <c r="G76" s="2" t="n">
         <v>256</v>
       </c>
       <c r="H76" s="1" t="n">
@@ -3099,7 +3089,7 @@
       <c r="F78" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="G78" s="3" t="n">
+      <c r="G78" s="2" t="n">
         <v>258</v>
       </c>
       <c r="H78" s="1" t="n">
@@ -3165,11 +3155,11 @@
       <c r="F80" s="1" t="n">
         <v>393</v>
       </c>
-      <c r="G80" s="3" t="n">
+      <c r="G80" s="2" t="n">
         <v>260</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="I80" s="1" t="n">
         <v>393</v>
@@ -3231,7 +3221,7 @@
       <c r="F82" s="1" t="n">
         <v>517</v>
       </c>
-      <c r="G82" s="3" t="n">
+      <c r="G82" s="2" t="n">
         <v>262</v>
       </c>
       <c r="H82" s="1" t="n">
@@ -3297,7 +3287,7 @@
       <c r="F84" s="1" t="n">
         <v>478</v>
       </c>
-      <c r="G84" s="3" t="n">
+      <c r="G84" s="2" t="n">
         <v>264</v>
       </c>
       <c r="H84" s="1" t="n">
@@ -3363,7 +3353,7 @@
       <c r="F86" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="G86" s="3" t="n">
+      <c r="G86" s="2" t="n">
         <v>266</v>
       </c>
       <c r="H86" s="1" t="n">
@@ -3429,7 +3419,7 @@
       <c r="F88" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="G88" s="3" t="n">
+      <c r="G88" s="2" t="n">
         <v>268</v>
       </c>
       <c r="H88" s="1" t="n">
@@ -3495,7 +3485,7 @@
       <c r="F90" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="G90" s="3" t="n">
+      <c r="G90" s="2" t="n">
         <v>270</v>
       </c>
       <c r="H90" s="1" t="n">
@@ -7147,7 +7137,7 @@
       <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
